--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>Opzet van het plan van aanpak</t>
+  </si>
+  <si>
+    <t>samen met iedereen een interview samenstellen</t>
+  </si>
+  <si>
+    <t>interview antwoorden samenstellen</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,10 +547,38 @@
       <c r="A11" s="3"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="3">
+        <v>42986</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="3">
+        <v>42986</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9510" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -75,12 +75,15 @@
   </si>
   <si>
     <t>interview antwoorden samenstellen</t>
+  </si>
+  <si>
+    <t>Plan van aanpak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -442,11 +445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,6 +586,23 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
     </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>42989</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -449,7 +449,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,28 +606,42 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42989</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>Plan van aanpak</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>plan van aanpak</t>
+  </si>
+  <si>
+    <t>documenten opschoonen</t>
   </si>
 </sst>
 </file>
@@ -449,7 +458,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,7 +633,38 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="3">
+        <v>42992</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>42992</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>documenten opschoonen</t>
+  </si>
+  <si>
+    <t>Plan van aanpak af</t>
+  </si>
+  <si>
+    <t>samen stellen van een .zip file met alle files</t>
   </si>
 </sst>
 </file>
@@ -457,8 +463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -669,8 +675,39 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
     </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>42993</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" t="s">
+        <v>21</v>
+      </c>
+    </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3">
+        <v>42993</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>samen stellen van een .zip file met alle files</t>
+  </si>
+  <si>
+    <t>plan van aanpak veranderen</t>
+  </si>
+  <si>
+    <t>website login page</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +716,38 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3">
+        <v>42999</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>42999</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>website login page</t>
+  </si>
+  <si>
+    <t>Website frontend login page</t>
+  </si>
+  <si>
+    <t>plan van aanpak update</t>
   </si>
 </sst>
 </file>
@@ -470,7 +476,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -752,8 +758,39 @@
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
     </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>43000</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s_mit\Desktop\mappen\School\Pr\Barroc-IT\documentatie\logboek\personlijke_logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\website\Barroc-IT\documentatie\logboek\personlijke_logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -105,13 +105,16 @@
   </si>
   <si>
     <t>plan van aanpak update</t>
+  </si>
+  <si>
+    <t>database UML</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +127,13 @@
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -153,12 +163,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -179,7 +190,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +228,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -323,7 +334,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -476,12 +487,13 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="18" x14ac:dyDescent="0.25">
@@ -500,321 +512,335 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="P5" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>42983</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>42983</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="E8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>42985</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="E10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>42986</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>0.40277777777777773</v>
       </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>42986</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>0.47222222222222227</v>
       </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>42989</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>0.375</v>
       </c>
-      <c r="E15" t="s">
-        <v>10</v>
-      </c>
-      <c r="G15" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" t="s">
+      <c r="E15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>42989</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="E17" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="E17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>42992</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="E19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>42992</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="E20" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="4"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>42993</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>0.40972222222222227</v>
       </c>
-      <c r="E22" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="E22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>42993</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>0.46527777777777773</v>
       </c>
-      <c r="E23" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" t="s">
-        <v>11</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>42999</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>0.375</v>
       </c>
-      <c r="E25" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" t="s">
-        <v>11</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>42999</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E26" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="E26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+      <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>43000</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <v>0.375</v>
       </c>
-      <c r="E28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" t="s">
-        <v>11</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="E28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>43000</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="E29" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" t="s">
-        <v>11</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="E29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="4">
+        <v>43004</v>
+      </c>
+      <c r="C31" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="4"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="4"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="4"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="4"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>database UML</t>
+  </si>
+  <si>
+    <t>laravel</t>
   </si>
 </sst>
 </file>
@@ -486,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,25 +824,39 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>43006</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
     </row>
   </sheetData>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -111,6 +111,9 @@
   </si>
   <si>
     <t>laravel</t>
+  </si>
+  <si>
+    <t>porten van login naar aravel</t>
   </si>
 </sst>
 </file>
@@ -490,7 +493,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +848,21 @@
       <c r="A34" s="4"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
+      <c r="A35" s="4">
+        <v>43007</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>porten van login naar aravel</t>
+  </si>
+  <si>
+    <t>opschoonen van search klanten</t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,7 +868,21 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="4"/>
+      <c r="A37" s="4">
+        <v>43010</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>opschoonen van search klanten</t>
+  </si>
+  <si>
+    <t>gewerkt aan de frontend van sales</t>
   </si>
 </sst>
 </file>
@@ -496,7 +499,7 @@
   <dimension ref="A1:P42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,6 +890,23 @@
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
     </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>43011</v>
+      </c>
+      <c r="C39" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
     </row>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>gewerkt aan de frontend van sales</t>
+  </si>
+  <si>
+    <t>back end van sales</t>
   </si>
 </sst>
 </file>
@@ -498,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,6 +913,23 @@
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
     </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
+        <v>43013</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
     </row>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -123,6 +123,9 @@
   </si>
   <si>
     <t>back end van sales</t>
+  </si>
+  <si>
+    <t>database connection sales</t>
   </si>
 </sst>
 </file>
@@ -499,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P42"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,6 +936,23 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
     </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
+        <v>43017</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>database connection sales</t>
+  </si>
+  <si>
+    <t>sales af maken</t>
   </si>
 </sst>
 </file>
@@ -502,15 +505,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -953,6 +956,23 @@
         <v>33</v>
       </c>
     </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
+        <v>43018</v>
+      </c>
+      <c r="C45" s="5">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>sales af maken</t>
+  </si>
+  <si>
+    <t>sales create connectie</t>
   </si>
 </sst>
 </file>
@@ -505,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M45" sqref="M45"/>
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,6 +976,23 @@
         <v>34</v>
       </c>
     </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
+        <v>43020</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>sales create connectie</t>
+  </si>
+  <si>
+    <t>login backend</t>
   </si>
 </sst>
 </file>
@@ -508,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,6 +996,23 @@
         <v>35</v>
       </c>
     </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
+        <v>43020</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>login backend</t>
+  </si>
+  <si>
+    <t>login backend finished/linked</t>
+  </si>
+  <si>
+    <t>users table updated</t>
   </si>
 </sst>
 </file>
@@ -190,13 +196,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -511,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,6 +1020,40 @@
         <v>36</v>
       </c>
     </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
+        <v>43031</v>
+      </c>
+      <c r="C51" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
+        <v>43031</v>
+      </c>
+      <c r="C52" s="5">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
+++ b/documentatie/logboek/personlijke_logboek/Logboek_Ben_Smits.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -141,6 +141,9 @@
   </si>
   <si>
     <t>users table updated</t>
+  </si>
+  <si>
+    <t>presentatie</t>
   </si>
 </sst>
 </file>
@@ -518,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1054,6 +1057,23 @@
         <v>38</v>
       </c>
     </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>43041</v>
+      </c>
+      <c r="C54" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
